--- a/Kitap1.xlsx
+++ b/Kitap1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="15000" windowHeight="4695"/>
   </bookViews>
   <sheets>
-    <sheet name="SuperTechmoBo" sheetId="1" r:id="rId1"/>
+    <sheet name="SuperTecmoBo" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -114,7 +114,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="tr-TR"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="103"/>
@@ -144,27 +144,28 @@
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
+                <a:latin typeface="Bahnschrift" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Number</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="tr-TR" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> of Plays</a:t>
+              <a:t>Super Tecmo Bo</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:latin typeface="Bahnschrift" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="22225" cap="rnd">
+          <a:noFill/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -188,7 +189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SuperTechmoBo!$B$1</c:f>
+              <c:f>SuperTecmoBo!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,7 +207,10 @@
             </a:solidFill>
             <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -214,20 +218,25 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none">
                     <a:ln>
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
+                      <a:noFill/>
                     </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:latin typeface="Bahnschrift" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="tr-TR"/>
@@ -244,7 +253,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>SuperTechmoBo!$A$2:$A$10</c:f>
+              <c:f>SuperTecmoBo!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -279,7 +288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SuperTechmoBo!$B$2:$B$10</c:f>
+              <c:f>SuperTecmoBo!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -324,11 +333,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="37983360"/>
-        <c:axId val="37984896"/>
+        <c:axId val="195947136"/>
+        <c:axId val="195950080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37983360"/>
+        <c:axId val="195947136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +368,7 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Bahnschrift" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -367,7 +376,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37984896"/>
+        <c:crossAx val="195950080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -375,7 +384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37984896"/>
+        <c:axId val="195950080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37983360"/>
+        <c:crossAx val="195947136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -406,6 +415,10 @@
         <a:lumMod val="75000"/>
       </a:schemeClr>
     </a:solidFill>
+    <a:ln w="12700" cap="rnd" cmpd="sng">
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
@@ -420,15 +433,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -752,7 +765,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
